--- a/biology/Histoire de la zoologie et de la botanique/Émile_Bescherelle/Émile_Bescherelle.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Émile_Bescherelle/Émile_Bescherelle.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%89mile_Bescherelle</t>
+          <t>Émile_Bescherelle</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Émile Bescherelle, né le 3 janvier 1828 à Paris et mort le 26 février 1903 est un botaniste et bryologiste français des XIXe et XXe siècles[1]. Il est le fils du grammairien Louis-Nicolas Bescherelle. Dans jeunesse, il collabora au Dictionnaire universel de Maurice La Châtre (1854-1856) pour la partie scientifique.
-Bescherelle est célèbre pour son analyse des espèces bryologiques en divers points du globe, parmi lesquels les Antilles françaises, les Mascareignes, le Paraguay, la Nouvelle-Calédonie. En 1882, avec le phycologue Paul Auguste Hariot (1854–1917), il prend part à l'expédition pluridisciplinaire française au cap Horn[2].
-Le genre Bescherellia a été nommé en son honneur par Jean Étienne Duby (1798-1885)[3].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Émile Bescherelle, né le 3 janvier 1828 à Paris et mort le 26 février 1903 est un botaniste et bryologiste français des XIXe et XXe siècles. Il est le fils du grammairien Louis-Nicolas Bescherelle. Dans jeunesse, il collabora au Dictionnaire universel de Maurice La Châtre (1854-1856) pour la partie scientifique.
+Bescherelle est célèbre pour son analyse des espèces bryologiques en divers points du globe, parmi lesquels les Antilles françaises, les Mascareignes, le Paraguay, la Nouvelle-Calédonie. En 1882, avec le phycologue Paul Auguste Hariot (1854–1917), il prend part à l'expédition pluridisciplinaire française au cap Horn.
+Le genre Bescherellia a été nommé en son honneur par Jean Étienne Duby (1798-1885).
 Il est président de la Société botanique de France en 1885.
 </t>
         </is>
@@ -496,7 +508,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>%C3%89mile_Bescherelle</t>
+          <t>Émile_Bescherelle</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,7 +526,9 @@
           <t>Ouvrages</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Prodromus bryologiae mexicanae : ou, énumération des mousses du Mexique, avec description des espèces nouvelles, 1872
 Florule bryologique de la Nouvelle-Calédonie, 1873
@@ -524,8 +538,8 @@
 Florule bryologique de la Réunion : de Maurice et des autres iles Austro-Africaines de l'océan Indien, 1880-81
 Catalogue des mousses observées en Algérie, 1882
 Mission scientifique du cap Horn, 1882–1883. Tome V, Botanique avec Paul Auguste Hariot (1854-1917) et al.
-Hépatiques nouvelles des colonies françaises, 1888[4]
-Par ailleurs, il collabore à la publication du Catalogue raisonné des plantes cellulaires de la Tunisie[5] de Narcisse Théophile Patouillard.
+Hépatiques nouvelles des colonies françaises, 1888
+Par ailleurs, il collabore à la publication du Catalogue raisonné des plantes cellulaires de la Tunisie de Narcisse Théophile Patouillard.
 </t>
         </is>
       </c>
